--- a/Recycling/Met_rec_tech/metrec_tech_Avg_target_Max.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Avg_target_Max.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.278145433514611E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.530110409787059E-11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.432705408359321E-06</v>
+      </c>
+      <c r="E7">
         <v>5.912782652320232</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.886608877061845E-08</v>
-      </c>
-      <c r="F7">
-        <v>3.432705408359321E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>15.7569300609179</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>632.4439309577913</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>42.47793086994584</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>455622.1531794474</v>
+      </c>
+      <c r="E7">
         <v>1093215.769419258</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>80136.15981180687</v>
-      </c>
-      <c r="F7">
-        <v>455622.1531794474</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2913302.489390889</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>615.1779889803485</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.31826840214163</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>438378.7258850934</v>
+      </c>
+      <c r="E7">
         <v>1123653.28956553</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77948.41443569053</v>
-      </c>
-      <c r="F7">
-        <v>438378.7258850934</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2994415.208118067</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.606319531277989E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.42217506163065E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4.577035148511464E-05</v>
+      </c>
+      <c r="E7">
         <v>12.06356391225342</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.56952125152452E-07</v>
-      </c>
-      <c r="F7">
-        <v>4.577035148511464E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>32.14810082291783</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.701588382963676E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.157809515351333E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0005103593852487571</v>
+      </c>
+      <c r="E7">
         <v>25.57046757822608</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.957322374110297E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0005103593852487571</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68.14254691012033</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.226764237251504E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.838895122317355E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.003992681087575814</v>
+      </c>
+      <c r="E7">
         <v>45.53628014385437</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.355678785473587E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.003992681087575814</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>121.3492907911167</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.473605633590541E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.333038120069507E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.02903694291723027</v>
+      </c>
+      <c r="E7">
         <v>87.87729939673724</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0004401361172919245</v>
-      </c>
-      <c r="F7">
-        <v>0.02903694291723027</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>234.1835548433987</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.326407510808697E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.562525507514908E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.1747426970921714</v>
+      </c>
+      <c r="E7">
         <v>159.8844001110029</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.002947761136567784</v>
-      </c>
-      <c r="F7">
-        <v>0.1747426970921714</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>426.0747364681662</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0001123215087912155</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.544044700398416E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.7683649938213311</v>
+      </c>
+      <c r="E7">
         <v>236.6741191059601</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01423211440287635</v>
-      </c>
-      <c r="F7">
-        <v>0.7683649938213311</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>630.7110816120684</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0005707357018225244</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.833331383275652E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.597587427644169</v>
+      </c>
+      <c r="E7">
         <v>406.4693743690771</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.07231718919697561</v>
-      </c>
-      <c r="F7">
-        <v>3.597587427644169</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1083.197181503929</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.002656915392253429</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0001784510259882127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>15.58794493008847</v>
+      </c>
+      <c r="E7">
         <v>691.3447445493634</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3366543436627271</v>
-      </c>
-      <c r="F7">
-        <v>15.58794493008847</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1842.359414914866</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.01149907635280308</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0007723324495230189</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>63.32496428624729</v>
+      </c>
+      <c r="E7">
         <v>1164.400711475301</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.457033224907167</v>
-      </c>
-      <c r="F7">
-        <v>63.32496428624729</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3103.002706585142</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.04140077533273995</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.002780672224782017</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>215.4126524471193</v>
+      </c>
+      <c r="E7">
         <v>1719.717249664858</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.24583917403198</v>
-      </c>
-      <c r="F7">
-        <v>215.4126524471193</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4582.861576501539</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1483332085683251</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.009962761077871876</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>731.7732310078703</v>
+      </c>
+      <c r="E7">
         <v>2647.512901074896</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18.79511072108414</v>
-      </c>
-      <c r="F7">
-        <v>731.7732310078703</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7055.337236393253</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.5001331367805799</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.03359131105544989</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2332.36845693244</v>
+      </c>
+      <c r="E7">
         <v>4013.79899858614</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63.37122868035495</v>
-      </c>
-      <c r="F7">
-        <v>2332.36845693244</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>10696.34279123826</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.334612355268497</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.08963888906233232</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5777.504704056603</v>
+      </c>
+      <c r="E7">
         <v>5087.464799375357</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>169.107020802048</v>
-      </c>
-      <c r="F7">
-        <v>5777.504704056603</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>13557.5467161274</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.667790286570277</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.2463461733318285</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>14004.15433359834</v>
+      </c>
+      <c r="E7">
         <v>7245.07283739211</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>464.7410057610384</v>
-      </c>
-      <c r="F7">
-        <v>14004.15433359834</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>19307.34016415198</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.12021088689534</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.5453918360486918</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>24747.3402445104</v>
+      </c>
+      <c r="E7">
         <v>9804.082203404561</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1028.901512822403</v>
-      </c>
-      <c r="F7">
-        <v>24747.3402445104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>26126.82499498189</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.83263190620019</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8619003587646297</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>29493.41257224982</v>
+      </c>
+      <c r="E7">
         <v>12962.78063562252</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1626.006339698723</v>
-      </c>
-      <c r="F7">
-        <v>29493.41257224982</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>34544.41671221821</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.97999334264094</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8046331131052876</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>27997.87945117306</v>
+      </c>
+      <c r="E7">
         <v>16765.36394128213</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1517.969600240069</v>
-      </c>
-      <c r="F7">
-        <v>27997.87945117306</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>44677.89239047276</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.711914954413779</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4508040088340606</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>27928.49039453642</v>
+      </c>
+      <c r="E7">
         <v>21231.37706777129</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>850.4581404008377</v>
-      </c>
-      <c r="F7">
-        <v>27928.49039453642</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56579.33721317681</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.414235029328779</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.363645676765639</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>29595.04615008063</v>
+      </c>
+      <c r="E7">
         <v>26349.49511425727</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>686.0307804865791</v>
-      </c>
-      <c r="F7">
-        <v>29595.04615008063</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>70218.5715371977</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>3.715264462712081E-05</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9.90078034980634E-05</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.966601250852262</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.6022394230192905</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>31459.24808094228</v>
+      </c>
+      <c r="E7">
         <v>32076.86842569004</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1136.146550918519</v>
-      </c>
-      <c r="F7">
-        <v>31459.24808094228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>85481.40563876927</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.06529189240635</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8775269057619277</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>32866.1914899386</v>
+      </c>
+      <c r="E7">
         <v>38346.02339704393</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1655.48638832247</v>
-      </c>
-      <c r="F7">
-        <v>32866.1914899386</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>102188.0296148621</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>18.37750394331984</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.234320235920797</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34313.82921762476</v>
+      </c>
+      <c r="E7">
         <v>45080.51730663679</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2328.589967989236</v>
-      </c>
-      <c r="F7">
-        <v>34313.82921762476</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>120134.7318308639</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>25.21365134822739</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.693468284733052</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37006.66851770053</v>
+      </c>
+      <c r="E7">
         <v>52222.08083102421</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3194.789442948386</v>
-      </c>
-      <c r="F7">
-        <v>37006.66851770053</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>139166.2308045691</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>29.72413621430621</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.996413818641607</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37216.46305929048</v>
+      </c>
+      <c r="E7">
         <v>59771.86965706987</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3766.30719869542</v>
-      </c>
-      <c r="F7">
-        <v>37216.46305929048</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>159285.606317217</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>35.5717418467253</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.389166718384717</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36703.60182151938</v>
+      </c>
+      <c r="E7">
         <v>67846.67131737282</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4507.249812796072</v>
-      </c>
-      <c r="F7">
-        <v>36703.60182151938</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>180804.0845868774</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>56.19024149593933</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.774002843564908</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37442.5845328724</v>
+      </c>
+      <c r="E7">
         <v>76747.65252466155</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7119.793474124003</v>
-      </c>
-      <c r="F7">
-        <v>37442.5845328724</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>204524.2425233029</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>90.66708613693621</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.089631078080875</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37618.72876622101</v>
+      </c>
+      <c r="E7">
         <v>87034.03745893032</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>11488.31026544436</v>
-      </c>
-      <c r="F7">
-        <v>37618.72876622101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>231936.3524416931</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>129.8933955738214</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.724255870858459</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39126.18151752081</v>
+      </c>
+      <c r="E7">
         <v>99587.75358907231</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16458.62565308843</v>
-      </c>
-      <c r="F7">
-        <v>39126.18151752081</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>265390.6562270084</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>167.7241043381199</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.26514551022504</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40627.73983987276</v>
+      </c>
+      <c r="E7">
         <v>115648.5281499229</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21252.10626841919</v>
-      </c>
-      <c r="F7">
-        <v>40627.73983987276</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>308190.8936719255</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.001867739701078062</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.004977325495016832</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>161.5098768100018</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.84776854694269</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39841.68579538364</v>
+      </c>
+      <c r="E7">
         <v>136794.8619548516</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20464.70946385812</v>
-      </c>
-      <c r="F7">
-        <v>39841.68579538364</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>364543.599732977</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>143.5412151823695</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.640908098004408</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36856.67967757388</v>
+      </c>
+      <c r="E7">
         <v>164854.997171888</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18187.92338162702</v>
-      </c>
-      <c r="F7">
-        <v>36856.67967757388</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>439320.8432261469</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>139.2727230355454</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.354215941662407</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33680.44436692954</v>
+      </c>
+      <c r="E7">
         <v>201745.3140668563</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17647.06821314542</v>
-      </c>
-      <c r="F7">
-        <v>33680.44436692954</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>537629.5715219545</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>126.3827970508918</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.48846744113426</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>35415.2045516292</v>
+      </c>
+      <c r="E7">
         <v>249247.9614781581</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16013.80221420662</v>
-      </c>
-      <c r="F7">
-        <v>35415.2045516292</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>664219.0196686082</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>110.4894572618146</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.420995439575857</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43893.69472510834</v>
+      </c>
+      <c r="E7">
         <v>308753.3043766686</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13999.97750194792</v>
-      </c>
-      <c r="F7">
-        <v>43893.69472510834</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>822794.3608296496</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>98.31606276306363</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.6033725885076</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>64331.0467720977</v>
+      </c>
+      <c r="E7">
         <v>380999.544288556</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12457.50228912279</v>
-      </c>
-      <c r="F7">
-        <v>64331.0467720977</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1015322.822705243</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>127.4581710807842</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.560694656014679</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>102147.6754410467</v>
+      </c>
+      <c r="E7">
         <v>465840.5889718067</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16150.06147909736</v>
-      </c>
-      <c r="F7">
-        <v>102147.6754410467</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1241415.085177398</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>197.9887466608782</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.29786227998335</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>153490.9912755615</v>
+      </c>
+      <c r="E7">
         <v>562065.7686149797</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25086.90030328453</v>
-      </c>
-      <c r="F7">
-        <v>153490.9912755615</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1497844.843362702</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>275.9255890711536</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.53246987454414</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>210023.9193598978</v>
+      </c>
+      <c r="E7">
         <v>667288.7332127813</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34962.17770401629</v>
-      </c>
-      <c r="F7">
-        <v>210023.9193598978</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1778252.731063324</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>388.5688326624536</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.098123808469</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>290364.8061476949</v>
+      </c>
+      <c r="E7">
         <v>777924.4889928669</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>49235.05871100495</v>
-      </c>
-      <c r="F7">
-        <v>290364.8061476949</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2073085.125313352</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.01806912527406489</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.04815227616961026</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>534.41918321411</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.89412437836631</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>392862.0718958749</v>
+      </c>
+      <c r="E7">
         <v>889281.314764363</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67715.56967537632</v>
-      </c>
-      <c r="F7">
-        <v>392862.0718958749</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2369839.093565296</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>607.2152482909453</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.78345301063722</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>444995.9006264503</v>
+      </c>
+      <c r="E7">
         <v>995798.4357445289</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76939.46576974377</v>
-      </c>
-      <c r="F7">
-        <v>444995.9006264503</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2653695.768884859</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>610.6181125449547</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.01200549642472</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>448396.0570333642</v>
+      </c>
+      <c r="E7">
         <v>1091449.012242458</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77370.63833750674</v>
-      </c>
-      <c r="F7">
-        <v>448396.0570333642</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2908594.271466029</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>605.8094519820621</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.68903306998646</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>444514.6984949346</v>
+      </c>
+      <c r="E7">
         <v>1170296.168816971</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76761.33912142427</v>
-      </c>
-      <c r="F7">
-        <v>444514.6984949346</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3118713.466555896</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>593.3820965723642</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.85435300089332</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>434153.0124852268</v>
+      </c>
+      <c r="E7">
         <v>1227144.172562207</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75186.68484710547</v>
-      </c>
-      <c r="F7">
-        <v>434153.0124852268</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3270207.284574891</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>574.6938637383216</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>38.5991627404639</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>418641.6646743995</v>
+      </c>
+      <c r="E7">
         <v>1258184.028480578</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>72818.72281967156</v>
-      </c>
-      <c r="F7">
-        <v>418641.6646743995</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3352925.163375123</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>562.9040731546889</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.80730454581849</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>406821.7521046458</v>
+      </c>
+      <c r="E7">
         <v>1261511.92623549</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>71324.85356721957</v>
-      </c>
-      <c r="F7">
-        <v>406821.7521046458</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3361793.653096027</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>549.1976325730608</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.88671505637918</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>391389.0797815956</v>
+      </c>
+      <c r="E7">
         <v>1237413.495256099</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69588.12805032358</v>
-      </c>
-      <c r="F7">
-        <v>391389.0797815956</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3297573.925457108</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>505.6442429009143</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.96146305365465</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>350960.3151397895</v>
+      </c>
+      <c r="E7">
         <v>1188357.418630404</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>64069.53387261146</v>
-      </c>
-      <c r="F7">
-        <v>350960.3151397895</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3166844.755469645</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>404.9548791923721</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>27.19868832914592</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>264993.932792032</v>
+      </c>
+      <c r="E7">
         <v>1118713.546240639</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>51311.31366283385</v>
-      </c>
-      <c r="F7">
-        <v>264993.932792032</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2981251.3232493</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.08585021074221118</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.2287815815197026</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>267.6973174492949</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.97982016755253</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>149400.357507385</v>
+      </c>
+      <c r="E7">
         <v>1034275.003553303</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33919.5839539812</v>
-      </c>
-      <c r="F7">
-        <v>149400.357507385</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2756231.685321615</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>209.37479439906</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.06260319222821</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>89872.68532557919</v>
+      </c>
+      <c r="E7">
         <v>941693.6106907824</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26529.61181731549</v>
-      </c>
-      <c r="F7">
-        <v>89872.68532557919</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2509512.227148288</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>216.1263905341952</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.51607237716566</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>83261.86748805724</v>
+      </c>
+      <c r="E7">
         <v>847920.598339123</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27385.09790926136</v>
-      </c>
-      <c r="F7">
-        <v>83261.86748805724</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2259617.231152304</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>207.3272776330646</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.92508226525957</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>76983.97382463234</v>
+      </c>
+      <c r="E7">
         <v>759693.614155809</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26270.17359244602</v>
-      </c>
-      <c r="F7">
-        <v>76983.97382463234</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2024501.803948725</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>180.2150295698404</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.10409522975377</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>64490.41474879032</v>
+      </c>
+      <c r="E7">
         <v>683063.4931031902</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22834.81539340134</v>
-      </c>
-      <c r="F7">
-        <v>64490.41474879032</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1820290.770162125</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>147.7886676882078</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.926187132373734</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>50499.16999259004</v>
+      </c>
+      <c r="E7">
         <v>622947.1342165901</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18726.11264416837</v>
-      </c>
-      <c r="F7">
-        <v>50499.16999259004</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1660087.137085659</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>128.0038325699494</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.597343866925835</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>50149.10070693048</v>
+      </c>
+      <c r="E7">
         <v>582732.7887844223</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16219.20154694918</v>
-      </c>
-      <c r="F7">
-        <v>50149.10070693048</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1552920.230118158</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>124.7902408806403</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.3815038233413</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>66586.55678483346</v>
+      </c>
+      <c r="E7">
         <v>564016.8191761968</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15812.01146324585</v>
-      </c>
-      <c r="F7">
-        <v>66586.55678483346</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1503044.183342897</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>139.9641276815179</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.40065395350371</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>95999.95853329118</v>
+      </c>
+      <c r="E7">
         <v>566565.1631357202</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17734.67520957966</v>
-      </c>
-      <c r="F7">
-        <v>95999.95853329118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1509835.246012115</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>183.7168082968201</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.33929128019452</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>139097.6457947918</v>
+      </c>
+      <c r="E7">
         <v>588541.213573703</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23278.52128724376</v>
-      </c>
-      <c r="F7">
-        <v>139097.6457947918</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1568399.057694017</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.017196712177489E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8382,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.02649226417285E-16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>8.201801077975035E-11</v>
+      </c>
+      <c r="E7">
         <v>0.3028330077108888</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.823051278941755E-13</v>
-      </c>
-      <c r="F7">
-        <v>8.201801077975035E-11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.8070174067307242</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>255.7870783828216</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.17987208212463</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>194538.3226870802</v>
+      </c>
+      <c r="E7">
         <v>626946.540902252</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32410.45282866184</v>
-      </c>
-      <c r="F7">
-        <v>194538.3226870802</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1670745.125910331</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>347.1418937357683</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.31569431275668</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>260291.6999985159</v>
+      </c>
+      <c r="E7">
         <v>678140.0759070057</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43985.9043815212</v>
-      </c>
-      <c r="F7">
-        <v>260291.6999985159</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1807170.392671071</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>448.9252273498797</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>30.15194523926198</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>332725.2278145407</v>
+      </c>
+      <c r="E7">
         <v>738287.3126588787</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56882.74011575997</v>
-      </c>
-      <c r="F7">
-        <v>332725.2278145407</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1967456.311938681</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>540.5810259585041</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.30798293137902</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>397685.6908926156</v>
+      </c>
+      <c r="E7">
         <v>803651.3586786048</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68496.32887113962</v>
-      </c>
-      <c r="F7">
-        <v>397685.6908926156</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2141644.46702456</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>593.4553553881916</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.85927341005847</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>435261.670035837</v>
+      </c>
+      <c r="E7">
         <v>870729.2885382572</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75195.96737775429</v>
-      </c>
-      <c r="F7">
-        <v>435261.670035837</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2320399.93827716</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>605.9672377232363</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.69963070793947</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>444036.9039570261</v>
+      </c>
+      <c r="E7">
         <v>936300.5617258163</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76781.33195043541</v>
-      </c>
-      <c r="F7">
-        <v>444036.9039570261</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2495140.33148547</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>599.6070992704707</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.27245367564394</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>438531.4366320658</v>
+      </c>
+      <c r="E7">
         <v>997459.1206583951</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75975.44695964393</v>
-      </c>
-      <c r="F7">
-        <v>438531.4366320658</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2658121.315633266</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>587.3277538334758</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.44771465757648</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>427653.1460278082</v>
+      </c>
+      <c r="E7">
         <v>1051664.089546975</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74419.54683924405</v>
-      </c>
-      <c r="F7">
-        <v>427653.1460278082</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2802571.729922792</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>573.092094591226</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>38.49158033549576</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>414022.7393182046</v>
+      </c>
+      <c r="E7">
         <v>1096806.034537832</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>72615.76470422425</v>
-      </c>
-      <c r="F7">
-        <v>414022.7393182046</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2922870.159927761</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>559.2849538563408</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.56422734665475</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>398700.332891275</v>
+      </c>
+      <c r="E7">
         <v>1131272.252387222</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>70866.27959998867</v>
-      </c>
-      <c r="F7">
-        <v>398700.332891275</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3014718.924891933</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.49260912345162E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.674154385060272E-14</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.335236045480532E-09</v>
+      </c>
+      <c r="E7">
         <v>0.9670845683224134</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.158353069540608E-11</v>
-      </c>
-      <c r="F7">
-        <v>5.335236045480532E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.577176399350583</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>542.1355823540582</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.41239430426353</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>378082.5089833619</v>
+      </c>
+      <c r="E7">
         <v>1154001.874637057</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68693.30471935739</v>
-      </c>
-      <c r="F7">
-        <v>378082.5089833619</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3075290.924432826</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>506.5815658742102</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>34.0244181054996</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>340943.4743055571</v>
+      </c>
+      <c r="E7">
         <v>1164531.674953056</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>64188.30086507758</v>
-      </c>
-      <c r="F7">
-        <v>340943.4743055571</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3103351.71017294</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>434.2022521419245</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.16308046806192</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>274989.0302111543</v>
+      </c>
+      <c r="E7">
         <v>1163034.552052745</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55017.21079937744</v>
-      </c>
-      <c r="F7">
-        <v>274989.0302111543</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3099362.038605435</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>351.6935318614583</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.62140389456144</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>201314.3462249808</v>
+      </c>
+      <c r="E7">
         <v>1150345.558293608</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>44562.63661404247</v>
-      </c>
-      <c r="F7">
-        <v>201314.3462249808</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3065547.2344831</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>301.3114529998865</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.23750477211285</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>153300.962243793</v>
+      </c>
+      <c r="E7">
         <v>1127961.664964553</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38178.78798229485</v>
-      </c>
-      <c r="F7">
-        <v>153300.962243793</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3005896.565345352</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>280.3851560509888</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.83199552196787</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>132538.3458270061</v>
+      </c>
+      <c r="E7">
         <v>1097996.517259523</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35527.24371966502</v>
-      </c>
-      <c r="F7">
-        <v>132538.3458270061</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2926042.668387386</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>263.9280832592392</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.72666054102983</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>122474.3919659962</v>
+      </c>
+      <c r="E7">
         <v>1063073.098231261</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33441.98912124244</v>
-      </c>
-      <c r="F7">
-        <v>122474.3919659962</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2832975.511437094</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>241.8577185566363</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.24431028004799</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>114296.7941001324</v>
+      </c>
+      <c r="E7">
         <v>1026146.780627139</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30645.48150003058</v>
-      </c>
-      <c r="F7">
-        <v>114296.7941001324</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2734570.845121976</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>220.628838376654</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.81847810648914</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>110601.7743835426</v>
+      </c>
+      <c r="E7">
         <v>990268.0292779851</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27955.59730404752</v>
-      </c>
-      <c r="F7">
-        <v>110601.7743835426</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2638957.830248202</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>209.7918886107333</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.09061721564193</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>117311.254040661</v>
+      </c>
+      <c r="E7">
         <v>958313.5630091019</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26582.46129023652</v>
-      </c>
-      <c r="F7">
-        <v>117311.254040661</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2553802.613197366</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.005619498253551E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.754217004437477E-13</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.813380488625978E-07</v>
+      </c>
+      <c r="E7">
         <v>2.676897733400711</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.274207575996074E-09</v>
-      </c>
-      <c r="F7">
-        <v>1.813380488625978E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7.133644655257699</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>216.0847717388462</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.51327706168363</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>137584.8330475331</v>
+      </c>
+      <c r="E7">
         <v>932729.0246695273</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27379.82444505053</v>
-      </c>
-      <c r="F7">
-        <v>137584.8330475331</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2485622.569221057</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>245.4435265876955</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.48515013667459</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>172302.4220283676</v>
+      </c>
+      <c r="E7">
         <v>915327.472580559</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31099.83463928239</v>
-      </c>
-      <c r="F7">
-        <v>172302.4220283676</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2439249.303816198</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>299.5994925563917</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.12252139760134</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>219854.8780271048</v>
+      </c>
+      <c r="E7">
         <v>907174.1475558517</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37961.86766892633</v>
-      </c>
-      <c r="F7">
-        <v>219854.8780271048</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2417521.569222769</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>373.7498707595196</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.10281211605717</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>276700.9525305228</v>
+      </c>
+      <c r="E7">
         <v>908564.9497281942</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>47357.36704353942</v>
-      </c>
-      <c r="F7">
-        <v>276700.9525305228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2421227.907481215</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>458.1606138024219</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>30.77223754990874</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>337938.1260367213</v>
+      </c>
+      <c r="E7">
         <v>919084.5526239537</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>58052.94409505013</v>
-      </c>
-      <c r="F7">
-        <v>337938.1260367213</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2449261.518192758</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>539.8431166671437</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.2584214472183</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>396188.4532991238</v>
+      </c>
+      <c r="E7">
         <v>937718.5155064662</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68402.82933069889</v>
-      </c>
-      <c r="F7">
-        <v>396188.4532991238</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2498919.025860874</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>605.1788260229453</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.64667724271875</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>442487.2786248292</v>
+      </c>
+      <c r="E7">
         <v>962993.6366356391</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76681.43331449413</v>
-      </c>
-      <c r="F7">
-        <v>442487.2786248292</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2566274.506238175</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>643.0176537920152</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.18811219291295</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>469001.5899700042</v>
+      </c>
+      <c r="E7">
         <v>993127.3561602902</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81475.94267851234</v>
-      </c>
-      <c r="F7">
-        <v>469001.5899700042</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2646577.628971585</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>653.441591873313</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.88823326220584</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>475538.9927817824</v>
+      </c>
+      <c r="E7">
         <v>1026174.295065711</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82796.74651117179</v>
-      </c>
-      <c r="F7">
-        <v>475538.9927817824</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2734644.168142581</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>646.7451253124441</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.43846684067547</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>468965.1071601229</v>
+      </c>
+      <c r="E7">
         <v>1060162.720202699</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81948.24581691495</v>
-      </c>
-      <c r="F7">
-        <v>468965.1071601229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2825219.666897655</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
